--- a/Testdata/TC_26.xlsx
+++ b/Testdata/TC_26.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Jx0AAB+LCAAAAAAAAAOlWVtvI0kV/istP4GE3d12ZtaJKr3yLVkLO45sh0z2BZW7K3GTvpiu6iR+WyTQomURQmgWLVfxtAiJYQS70jLD5b+sJpnhib/AqUvfbGfHHUbRpOuc71SdOnVuVUHv3viedkUi6obBfsWsGRWNBHbouMHFfiVm51XzceVdC/VubOId4wj7hAFYA6mA7t1Qd78yZ2yxp+vX19e160YtjC70umGY+pPhYGLPiY+rbkAZDmxSSaWct0tVLNRx/CFh2MEMS8n9Sn/Sr3WIa3eBNsQBviBRrR1TNyCU9gLmMpdQLhkRzEinO/yO3JhVrz2umUhfo2fIdux6jsQVkJKucLAsmbo+seqG2awazWrDmJr1vYa5t1OvNXeb7yeCKRANMGUTEl25tiBMGPYXQtxoNgyz3jB36kjfCIK5MgNYaOQ5Y3LlUuJ0iOfRUhbR1QG2bAa7LmdMA+k5WTXRw1U4jPBiPnWZR8qpMR62NT9QumSTWOggjIgN9nuQSkfkehQps04XA+BO527Ell28LD3XCSXRaMGNVE7UQt0wYC2PROxkAWdNHHAFYFgsignS72FmQl2X2vDtBjFxrHPs0bxQgYlOw+iSLrBNjiCOdT7HdeCF2AGHYy5lrp0tusZAx1G4gBlh8XboOQcwqwJvYKQz9wMwMV+2HYaXmXabmEicqjhfOFMfswS+RkeTeXg9CrzlJJ5RO3JnxOm2E/RGHuIBqaQ7MWWhD1pkJCRpOcoS/kEArpJRl9iuj71jD4xIrSbMUiCgVszCc5d1Qi/2A5rotEJFp7CjKblJd5iO0QgON+BGD4N+kOClmTeyigLj8Dpdc50hjJAjt6idHPc6YxXcBVpyfOsccSJ8lweuB/UhfxY5atErJnNC2EaXkBzEU+EBrzhWe3kU+zMIrxnE2JVYlSI94yPwU/B10MsyoIpUxc/UMPbED+iRslEvcO7HJUwEy+XWskzgrZAQ7Mlrezi4BOqpy+ZHrWQvGzhIWuBe/DoPQeQuPLwU5NRKeRrqB7YXO0QmhH5wLlyU6yYP9V42WiMNIMYthIPldLmAvEzdPQYf+xWo1HuURdALVCw7jAMWLXnmQLqCvk2GxrNALIC9rWXOI/L9GFqQ5UEc2J3Q2X41R1rnJHDZ9hqGcSTT4fYiwno8M8a0S3iOEUl/a3m7zJ5oVAruB8QPA9fe3tpgZK6984CN0CSqtpYgMr62xntQ12XZ47G+tVgE/SMUulLLtCgNbVc4qwoPJyev3xMyXXKOYw96NwYl9iLNvatk1KKXq5g8CZ1EXpIBLd4ZU2iNbcev2dA88PavZoc+J+jQkZ5OkJ7H8w7IJr3gYoCDixh6jDSvrNLT/Mvr4zTCAeXbSVuKlVS8GYSSPCVbHUsmr1EsHEEmrxC4SF/BoSnxF2GEvSEYxj1Qbqf6JWhFhpjN1Qhqm0fsxMh6JppKFTVLFH8bTBQpuQ0e8CpNrhAFiO9FNuEZJqMhvsshhKXXwZ47i2RWTUr5Jh4cWNYcJvmXb65ko5icAVzEoPp+myx5d54NFF24rJkwpAPzRGpNxjvN+iOjATcOMUZix2OCPa0HwcyI1g+uCGU+iO1pY0JdB75c7O1p75EZcaEIChOpMlRaOi+HDpI8L1Rpgb5FShEA/caFC2VkHZhyMgHrjODIW+aAcquD0Abc3Y//ffub569efHb30dM3X/zwv//41at//uz22Y/g4+6vf7v9+JdymxKMpnjmEaHQtN1sGo0d8LOUhLhxddEaO7HNBO3sTHTE6Ripi50YdHr9zuGgLfJJSkzEZUnR+Z1xGcbZcCI3IRYSR6onniAh1jTJT2pc4OZKlMXvcFekiM7z7xOUtnj98rPXL/98r7QyWNZrmbu7j6pm/a2tGNyGzTVc2ooNCjWAg3eqxqNqvZ4Dr2DQWBaA1E59x2qYxq5Rhyt3msud1JE3gVZZaqYpvtBX5CSpI9uj1AXy44QpHH8KIZKyZSjkBspFv/jJm788LaCUdRWlOAsoJ9oYvpieDMTUR+OpNhmdjDs9bdqbcD/JeDmcnPxrwGr1NJ4KThUEMfa+pUFxh2KmVeBGVNHCc41ge64tIRJzcVhwtk1UudADp1zV8jAK44U8kZxARt2ATLPJRokNuUbwhD3Xkk7G2gCXut7+/fNNAmoj3ayhTd8/8jRU4EhSjq+i9tN/vfryw1cvXtw9//ntlz8ozKDWSZ8FwM8hmvLD1O0h5al6s0JBpxNhzEvju7n6ooj8InUcugGjlvlY3KHUCIGoyWcTv1Hfh5InJhb2AvoKBb2Hae+GqcC2jpBeJICeCwzVNszunilB5vDMrv/57e/ufv353SfP33z4p9uP/nj78SevX/7+zbM/yKi7e/r87qfPVJZfLQRCF36jlU2gJt5HbI1Ho8Zrt/bVB7/QgpBp0HJoschIX33waW4yrqhoTrKZoaVLFSmqsAbNC3M5LadKqkNBLhWRDUCHl7BGilBFLFy4drbI+1U+FY87wfhGf1qNKdFC6Ka+CTspgjPhbeWUiCypx+8YdbOuuFIbvoUZpjnTH3rhDJqMhCEeIFYgBamvF8iwYr3DwajdGmQQqcQockjE3VB+oKSl5CWlT5NR4mo5CnCh8bNjj78ZrcHWWenMuTSmq8eX85bD09/mp4oCAnXiKJINUaDe8ifxAprh5Inufr54tsz1v0eyV813xNm43y3yYZzjQiEssjlB8EVqUiyZpvqUv/PIdvaImyYbAq/w1AnmUM/1stO6gr4y0nne6UVRGG1MPhkngQ2hk4aMomcWTzHiTGXX7WRnlRCShJd+yJuf2mHYJR5h5d6y9Ux6GF49WBbOvqxon448Rxmz3NUjNUs2Qf5BnzvK//ueL52tFUXQWPEHwNIP8MnFdQz33ZLayK0IQX4DhNXVC/mBG1H2hGcC9SUpZynlTHaoT/iFS36I8ZnVeCQJANDzs+sFNZPQZfLPKqE3cH235LXQSOK7OAnYcrGQLVy/nKfw0nJEbqDBzM0ASXH2PSgb8h2lzGzSYSGXpvL87ZK6F3NWVrF3Zpg4ZGZU7RmpV3cco1ndJaRRNU34H9v1umE84i+fanLIHC65LrmInhxY9udO638agwVnJx0AAA==</t>
+          <t>IB8AAB+LCAAAAAAAAAOlWVlvI8cR/isDPiVAqDkorQ60xuClNRFKFEQqWvklaM40pY6GM8x0jyS+OYANB46DIAjWgXMiTw4CZLNIbMDZzfFfjJV285S/kOpjLpLyapSFgJ2uqq+6urq6qrqJ3rmeBsYliRmNwt2avWbVDBJ6kU/Ds91awid1+1HtHRd1rz0SHOIYTwkHYQNQIdu5ZnS3ds75bMc0r66u1q4aa1F8ZjqWZZtP9vtD75xMcZ2GjOPQI7UM5b8dVXNR25/uE459zLFC7tZ6w95am1CvA7R9HOIzEq+1EkZDwlg35JRTwgQyJpiTdmf/e2phrrP2aM1G5hI9l2wlNPCVXElS0bUcTEtGdEpcx3KsurVVd9ZHtr2z4ezYG2ub6/Z7KTATRH3M+JDEl9SThCHH05mEW1vOum1vOPYGMlcKga7cAS4aBP4RuaSM+G0SBKySR0y9gU2Pw6qrOdNCZgGrFT3chMcxnp2PKA9IVfheFBMPHPWguQ/I1SDW/hvN+sAdndOYzzt4XlnXMSPxYCa8UQ3qok4U8mZAYn48g00lPuw5MFweJwSZdzBzUIcyD75pmBDfneCAFUElJjqJ4gs2wx45gANrCh1XYRBhHyKLU8apl0+6xECHcTQDjTB5Kwr8PdCqhVcwMs29EFwspm1F0UVu3SomkjEgowH2dIp5Kr5ER8Pz6GoQBvNhMmZeTMfE77RS6ZU8JE6eRrcTxqMpWJGTkKIVKHP4BydtkYw6xKNTHBwG4ETmboGWEgE1Ex5NKG9HQTINWWrTAhWdwIpG5DpbYTZGA9jcUDg9CnthKq/cvJJVBhxFV9mcywzphAK5ybx0u5cZi8IdoKXbt8yROyJWuUcDKATFvShQy1ExPCeErwwJxUEi5+2J0uK25gfJdAzHawxn7FLOypCZ8xHEKcQ62OVaUC7q8m9kWTvyD+zI2Kgb+nfLpUwE0xXmcm3gLZAQrCloBTi8AOoJ5ecHzXQtKzhIeeBO+WUegpM7C/BckjMvFWmoF3pB4hOVEHrhRIaosE1t6p1stETqwxl3EQ7no/kMEjCjOxw+dmtQkncYj6Ho11wvSkIez0XmQKYWfRuGJeNQToCDe2MmMflhAr3GfC8JvXbk3382X3nnOKT8/hZGSazS4f0h0nsiMyasQ0SOkUn/3nivyppYXEl8GpJpFFLv/t4GJwvr/QcshKWn6t4Ios7XveUDqOuq7Imzfm9YDI0iFLpK0zQZizwqg1UfD7+AN+84Mh0ywUkATRqHEnuW5d5FMmqyi0WZIgkdx0GaAV3RAjPogT1/uuZB8yD6vDUvmgqCCa3nyRCZRXnRAXmkG571cXiWQI+R5ZVFepZ/RX0cxThkYjlZS7GQilcLoTRPqVbHVclrkMhAUMkrAi4yF+TQiExnUYyDfXAM3dNhp/slaEX2MT/XI6htAfFSJ5s5NEOVLUsNf5uYLFJqGeLA6zS5QJRCYi2q285lchoSq9yHYxm0cUDHscqqaSlfxYMNy5vDNP+KxVVsFNM9gBsXVN/vkrlow/OBpsuQtVOGCmCRSN3h0fqWs2E1HOhsxBjJFR8RHBhdOMycGL3wkjA+BdiOcUQY9eGL4mDHeJeMCYUiKF2ky1BldBGH9tI8L01pgr1lSlkA+o0zCmVkWTDj5AD3lOA4mBcE1VL7kQdytz/+981vnr968fntx0/ffPnBf//xq1f//NnNsw/h4/avf7v55JdqmUoYjfA4INKgUWtry2qsQ5xlJCSca8rW2E88Lmmnp7IjzsZI3+DkoN3ttR/3WzKfZMQUrkqKKS6H8yjJh0O1CDmR3FIzjQQl4o7S/KTHJW6hRLnisnZJytJF/l1A5YvXLz9//fLPd6K1w/Jey97e3qjbzltbMcey7SW5rBXrl2qAEF6vWxt1xykIL8igI1UAMj/1fLdhW9uW07DsLJf7WSCvElpkaU0jfGYu4BSprdqjLASK45QpA38ERyRjq6NQGOgQ/fInb/7ytCSlvaspZS1gnGxjxGRmOpCqD45GxnBwfNTuGqPuUMRJzivIKeXfIKxnz85TKajCMMHBdwwo7lDMjBrciGpGNDEI9s6NOZzEwjksBdsqqprogSoXrXwcR8lM7UgBkFNXSGbZZCViRa6RPOnPpaSTs1aIK1tv/v7FKoBeSCdvaN2j/ZYxDbO4lDRU4ihSga9P7Wf/evXVR69evLh9/vObr35U0qDnyZ4FIM7hNBWHWdhDytP1ZoGCTobSmRfW9wv1RRPFReowoiFnrv1I3qH0CAHUFtrk/6g3hZInFUt/AX2Bgt7FrHvN9cF2D5BZJoCdMwzVNsrvnhlB5fDcr//57e9uf/3F7afP33z0p5uP/3jzyaevX/7+zbM/qFN3+/T57U+f6Sy/WAikLeJGq5pAQ76PeIY4jYao3cbX7//CCCNuQMthJDIjff3+ZwVlwlDZnOSaoaXLDCmbsCRaBAucUTAls6GEyyCqAWiLEtbIJHQRi2bUyyd5ry5UiXMnGd/qjeoJI0YE3dS3YSVl4Rx8X5yGqJJ6uGk5tqO5yhqxhDFmBdc/DqIxNBkpQz5ALIiUUN8MyGXlfI/7g1azn4soIwaxT2IRhuoD9VjaVKbhVaAAF5o9LwnEO9GS2DILpV+F1GXqB5dJ0xcpb/XzREkCtZM4Vk1QqB/qh8kMGuD0We5uvnyqLPS8B6o/LXbB+bjXKfNhXOBC8SuzBUHyZTrSLJWaeky87agW9kC4Jh8Cr/S8Ce7Qb/Gqu7qEXjI2Ra7pxnEUr0w4OScV24fuGbKImXs8kzHFlKrT9vO9Sglpkss+1G1PrzDqkIDwyg/VKXo/unwwFva+KrTHBoGvnVntupG5JVdQfK0XgVLVmGYcQ9sknvcqP6/3aXjRq7Z6d7ztOf7m5jYm9tZ4exNvbmyRht9Y39p07HUfujylVNw+hQpxcxF3t2qTgJoyPL9nH8HNu6I25WAJFHdR8JQ8kDqxZ2O0R2PGn4gUpb8U5TSjnKrW+YmwT33I8anb0L8sgYBZnMwsWZ3mF65+2ImCPp3SivdVK01CZSUQBrOZ6i2rbijUvANyDZ1vQQNk6/EPoJ6pB54q2tSpgiSf4VNdw2RcWZ2Zgg+BLwLrYeiuD33Zw9HyZxIa/B8GyM7roSp6IaNn57zqvjrb2w3yiDh1Z+J59XUY1KEaj+s+nmzbljVp+BuOeNHWyqE6UHJVcRJRUyiDe0V1nLnwO7f7P2ln9MEgHwAA</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0.00000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B21" s="2">
-        <v>0.2499825759175085</v>
+        <v>0.2499825759175076</v>
       </c>
     </row>
     <row r="22">
@@ -758,4 +758,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>36</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4F56E26-E302-4BA2-8AB3-D3FF13954FDD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_26.xlsx
+++ b/Testdata/TC_26.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>IB8AAB+LCAAAAAAAAAOlWVlvI8cR/isDPiVAqDkorQ60xuClNRFKFEQqWvklaM40pY6GM8x0jyS+OYANB46DIAjWgXMiTw4CZLNIbMDZzfFfjJV285S/kOpjLpLyapSFgJ2uqq+6urq6qrqJ3rmeBsYliRmNwt2avWbVDBJ6kU/Ds91awid1+1HtHRd1rz0SHOIYTwkHYQNQIdu5ZnS3ds75bMc0r66u1q4aa1F8ZjqWZZtP9vtD75xMcZ2GjOPQI7UM5b8dVXNR25/uE459zLFC7tZ6w95am1CvA7R9HOIzEq+1EkZDwlg35JRTwgQyJpiTdmf/e2phrrP2aM1G5hI9l2wlNPCVXElS0bUcTEtGdEpcx3KsurVVd9ZHtr2z4ezYG2ub6/Z7KTATRH3M+JDEl9SThCHH05mEW1vOum1vOPYGMlcKga7cAS4aBP4RuaSM+G0SBKySR0y9gU2Pw6qrOdNCZgGrFT3chMcxnp2PKA9IVfheFBMPHPWguQ/I1SDW/hvN+sAdndOYzzt4XlnXMSPxYCa8UQ3qok4U8mZAYn48g00lPuw5MFweJwSZdzBzUIcyD75pmBDfneCAFUElJjqJ4gs2wx45gANrCh1XYRBhHyKLU8apl0+6xECHcTQDjTB5Kwr8PdCqhVcwMs29EFwspm1F0UVu3SomkjEgowH2dIp5Kr5ER8Pz6GoQBvNhMmZeTMfE77RS6ZU8JE6eRrcTxqMpWJGTkKIVKHP4BydtkYw6xKNTHBwG4ETmboGWEgE1Ex5NKG9HQTINWWrTAhWdwIpG5DpbYTZGA9jcUDg9CnthKq/cvJJVBhxFV9mcywzphAK5ybx0u5cZi8IdoKXbt8yROyJWuUcDKATFvShQy1ExPCeErwwJxUEi5+2J0uK25gfJdAzHawxn7FLOypCZ8xHEKcQ62OVaUC7q8m9kWTvyD+zI2Kgb+nfLpUwE0xXmcm3gLZAQrCloBTi8AOoJ5ecHzXQtKzhIeeBO+WUegpM7C/BckjMvFWmoF3pB4hOVEHrhRIaosE1t6p1stETqwxl3EQ7no/kMEjCjOxw+dmtQkncYj6Ho11wvSkIez0XmQKYWfRuGJeNQToCDe2MmMflhAr3GfC8JvXbk3382X3nnOKT8/hZGSazS4f0h0nsiMyasQ0SOkUn/3nivyppYXEl8GpJpFFLv/t4GJwvr/QcshKWn6t4Ios7XveUDqOuq7Imzfm9YDI0iFLpK0zQZizwqg1UfD7+AN+84Mh0ywUkATRqHEnuW5d5FMmqyi0WZIgkdx0GaAV3RAjPogT1/uuZB8yD6vDUvmgqCCa3nyRCZRXnRAXmkG571cXiWQI+R5ZVFepZ/RX0cxThkYjlZS7GQilcLoTRPqVbHVclrkMhAUMkrAi4yF+TQiExnUYyDfXAM3dNhp/slaEX2MT/XI6htAfFSJ5s5NEOVLUsNf5uYLFJqGeLA6zS5QJRCYi2q285lchoSq9yHYxm0cUDHscqqaSlfxYMNy5vDNP+KxVVsFNM9gBsXVN/vkrlow/OBpsuQtVOGCmCRSN3h0fqWs2E1HOhsxBjJFR8RHBhdOMycGL3wkjA+BdiOcUQY9eGL4mDHeJeMCYUiKF2ky1BldBGH9tI8L01pgr1lSlkA+o0zCmVkWTDj5AD3lOA4mBcE1VL7kQdytz/+981vnr968fntx0/ffPnBf//xq1f//NnNsw/h4/avf7v55JdqmUoYjfA4INKgUWtry2qsQ5xlJCSca8rW2E88Lmmnp7IjzsZI3+DkoN3ttR/3WzKfZMQUrkqKKS6H8yjJh0O1CDmR3FIzjQQl4o7S/KTHJW6hRLnisnZJytJF/l1A5YvXLz9//fLPd6K1w/Jey97e3qjbzltbMcey7SW5rBXrl2qAEF6vWxt1xykIL8igI1UAMj/1fLdhW9uW07DsLJf7WSCvElpkaU0jfGYu4BSprdqjLASK45QpA38ERyRjq6NQGOgQ/fInb/7ytCSlvaspZS1gnGxjxGRmOpCqD45GxnBwfNTuGqPuUMRJzivIKeXfIKxnz85TKajCMMHBdwwo7lDMjBrciGpGNDEI9s6NOZzEwjksBdsqqprogSoXrXwcR8lM7UgBkFNXSGbZZCViRa6RPOnPpaSTs1aIK1tv/v7FKoBeSCdvaN2j/ZYxDbO4lDRU4ihSga9P7Wf/evXVR69evLh9/vObr35U0qDnyZ4FIM7hNBWHWdhDytP1ZoGCTobSmRfW9wv1RRPFReowoiFnrv1I3qH0CAHUFtrk/6g3hZInFUt/AX2Bgt7FrHvN9cF2D5BZJoCdMwzVNsrvnhlB5fDcr//57e9uf/3F7afP33z0p5uP/3jzyaevX/7+zbM/qFN3+/T57U+f6Sy/WAikLeJGq5pAQ76PeIY4jYao3cbX7//CCCNuQMthJDIjff3+ZwVlwlDZnOSaoaXLDCmbsCRaBAucUTAls6GEyyCqAWiLEtbIJHQRi2bUyyd5ry5UiXMnGd/qjeoJI0YE3dS3YSVl4Rx8X5yGqJJ6uGk5tqO5yhqxhDFmBdc/DqIxNBkpQz5ALIiUUN8MyGXlfI/7g1azn4soIwaxT2IRhuoD9VjaVKbhVaAAF5o9LwnEO9GS2DILpV+F1GXqB5dJ0xcpb/XzREkCtZM4Vk1QqB/qh8kMGuD0We5uvnyqLPS8B6o/LXbB+bjXKfNhXOBC8SuzBUHyZTrSLJWaeky87agW9kC4Jh8Cr/S8Ce7Qb/Gqu7qEXjI2Ra7pxnEUr0w4OScV24fuGbKImXs8kzHFlKrT9vO9Sglpkss+1G1PrzDqkIDwyg/VKXo/unwwFva+KrTHBoGvnVntupG5JVdQfK0XgVLVmGYcQ9sknvcqP6/3aXjRq7Z6d7ztOf7m5jYm9tZ4exNvbmyRht9Y39p07HUfujylVNw+hQpxcxF3t2qTgJoyPL9nH8HNu6I25WAJFHdR8JQ8kDqxZ2O0R2PGn4gUpb8U5TSjnKrW+YmwT33I8anb0L8sgYBZnMwsWZ3mF65+2ImCPp3SivdVK01CZSUQBrOZ6i2rbijUvANyDZ1vQQNk6/EPoJ6pB54q2tSpgiSf4VNdw2RcWZ2Zgg+BLwLrYeiuD33Zw9HyZxIa/B8GyM7roSp6IaNn57zqvjrb2w3yiDh1Z+J59XUY1KEaj+s+nmzbljVp+BuOeNHWyqE6UHJVcRJRUyiDe0V1nLnwO7f7P2ln9MEgHwAA</t>
+          <t>Jx0AAB+LCAAAAAAAAAOlWVtvI0kV/istP4GE3d12ZtaJKr3yLVkLO45sh0z2BZW7K3GTvpiu6iR+WyTQomURQmgWLVfxtAiJYQS70jLD5b+sJpnhib/AqUvfbGfHHUbRpOuc71SdOnVuVUHv3viedkUi6obBfsWsGRWNBHbouMHFfiVm51XzceVdC/VubOId4wj7hAFYA6mA7t1Qd78yZ2yxp+vX19e160YtjC70umGY+pPhYGLPiY+rbkAZDmxSSaWct0tVLNRx/CFh2MEMS8n9Sn/Sr3WIa3eBNsQBviBRrR1TNyCU9gLmMpdQLhkRzEinO/yO3JhVrz2umUhfo2fIdux6jsQVkJKucLAsmbo+seqG2awazWrDmJr1vYa5t1OvNXeb7yeCKRANMGUTEl25tiBMGPYXQtxoNgyz3jB36kjfCIK5MgNYaOQ5Y3LlUuJ0iOfRUhbR1QG2bAa7LmdMA+k5WTXRw1U4jPBiPnWZR8qpMR62NT9QumSTWOggjIgN9nuQSkfkehQps04XA+BO527Ell28LD3XCSXRaMGNVE7UQt0wYC2PROxkAWdNHHAFYFgsignS72FmQl2X2vDtBjFxrHPs0bxQgYlOw+iSLrBNjiCOdT7HdeCF2AGHYy5lrp0tusZAx1G4gBlh8XboOQcwqwJvYKQz9wMwMV+2HYaXmXabmEicqjhfOFMfswS+RkeTeXg9CrzlJJ5RO3JnxOm2E/RGHuIBqaQ7MWWhD1pkJCRpOcoS/kEArpJRl9iuj71jD4xIrSbMUiCgVszCc5d1Qi/2A5rotEJFp7CjKblJd5iO0QgON+BGD4N+kOClmTeyigLj8Dpdc50hjJAjt6idHPc6YxXcBVpyfOsccSJ8lweuB/UhfxY5atErJnNC2EaXkBzEU+EBrzhWe3kU+zMIrxnE2JVYlSI94yPwU/B10MsyoIpUxc/UMPbED+iRslEvcO7HJUwEy+XWskzgrZAQ7Mlrezi4BOqpy+ZHrWQvGzhIWuBe/DoPQeQuPLwU5NRKeRrqB7YXO0QmhH5wLlyU6yYP9V42WiMNIMYthIPldLmAvEzdPQYf+xWo1HuURdALVCw7jAMWLXnmQLqCvk2GxrNALIC9rWXOI/L9GFqQ5UEc2J3Q2X41R1rnJHDZ9hqGcSTT4fYiwno8M8a0S3iOEUl/a3m7zJ5oVAruB8QPA9fe3tpgZK6984CN0CSqtpYgMr62xntQ12XZ47G+tVgE/SMUulLLtCgNbVc4qwoPJyev3xMyXXKOYw96NwYl9iLNvatk1KKXq5g8CZ1EXpIBLd4ZU2iNbcev2dA88PavZoc+J+jQkZ5OkJ7H8w7IJr3gYoCDixh6jDSvrNLT/Mvr4zTCAeXbSVuKlVS8GYSSPCVbHUsmr1EsHEEmrxC4SF/BoSnxF2GEvSEYxj1Qbqf6JWhFhpjN1Qhqm0fsxMh6JppKFTVLFH8bTBQpuQ0e8CpNrhAFiO9FNuEZJqMhvsshhKXXwZ47i2RWTUr5Jh4cWNYcJvmXb65ko5icAVzEoPp+myx5d54NFF24rJkwpAPzRGpNxjvN+iOjATcOMUZix2OCPa0HwcyI1g+uCGU+iO1pY0JdB75c7O1p75EZcaEIChOpMlRaOi+HDpI8L1Rpgb5FShEA/caFC2VkHZhyMgHrjODIW+aAcquD0Abc3Y//ffub569efHb30dM3X/zwv//41at//uz22Y/g4+6vf7v9+JdymxKMpnjmEaHQtN1sGo0d8LOUhLhxddEaO7HNBO3sTHTE6Ripi50YdHr9zuGgLfJJSkzEZUnR+Z1xGcbZcCI3IRYSR6onniAh1jTJT2pc4OZKlMXvcFekiM7z7xOUtnj98rPXL/98r7QyWNZrmbu7j6pm/a2tGNyGzTVc2ooNCjWAg3eqxqNqvZ4Dr2DQWBaA1E59x2qYxq5Rhyt3msud1JE3gVZZaqYpvtBX5CSpI9uj1AXy44QpHH8KIZKyZSjkBspFv/jJm788LaCUdRWlOAsoJ9oYvpieDMTUR+OpNhmdjDs9bdqbcD/JeDmcnPxrwGr1NJ4KThUEMfa+pUFxh2KmVeBGVNHCc41ge64tIRJzcVhwtk1UudADp1zV8jAK44U8kZxARt2ATLPJRokNuUbwhD3Xkk7G2gCXut7+/fNNAmoj3ayhTd8/8jRU4EhSjq+i9tN/vfryw1cvXtw9//ntlz8ozKDWSZ8FwM8hmvLD1O0h5al6s0JBpxNhzEvju7n6ooj8InUcugGjlvlY3KHUCIGoyWcTv1Hfh5InJhb2AvoKBb2Hae+GqcC2jpBeJICeCwzVNszunilB5vDMrv/57e/ufv353SfP33z4p9uP/nj78SevX/7+zbM/yKi7e/r87qfPVJZfLQRCF36jlU2gJt5HbI1Ho8Zrt/bVB7/QgpBp0HJoschIX33waW4yrqhoTrKZoaVLFSmqsAbNC3M5LadKqkNBLhWRDUCHl7BGilBFLFy4drbI+1U+FY87wfhGf1qNKdFC6Ka+CTspgjPhbeWUiCypx+8YdbOuuFIbvoUZpjnTH3rhDJqMhCEeIFYgBamvF8iwYr3DwajdGmQQqcQockjE3VB+oKSl5CWlT5NR4mo5CnCh8bNjj78ZrcHWWenMuTSmq8eX85bD09/mp4oCAnXiKJINUaDe8ifxAprh5Inufr54tsz1v0eyV813xNm43y3yYZzjQiEssjlB8EVqUiyZpvqUv/PIdvaImyYbAq/w1AnmUM/1stO6gr4y0nne6UVRGG1MPhkngQ2hk4aMomcWTzHiTGXX7WRnlRCShJd+yJuf2mHYJR5h5d6y9Ux6GF49WBbOvqxon448Rxmz3NUjNUs2Qf5BnzvK//ueL52tFUXQWPEHwNIP8MnFdQz33ZLayK0IQX4DhNXVC/mBG1H2hGcC9SUpZynlTHaoT/iFS36I8ZnVeCQJANDzs+sFNZPQZfLPKqE3cH235LXQSOK7OAnYcrGQLVy/nKfw0nJEbqDBzM0ASXH2PSgb8h2lzGzSYSGXpvL87ZK6F3NWVrF3Zpg4ZGZU7RmpV3cco1ndJaRRNU34H9v1umE84i+fanLIHC65LrmInhxY9udO638agwVnJx0AAA==</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.00000000"/>
+    <numFmt numFmtId="166" formatCode="###0.00000000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B21" s="2">
-        <v>0.2499825759175076</v>
+        <v>0.2499825759175085</v>
       </c>
     </row>
     <row r="22">
@@ -758,37 +758,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>36</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4F56E26-E302-4BA2-8AB3-D3FF13954FDD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>